--- a/SchedulingData/dynamic12/pso/scheduling1_5.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_5.xlsx
@@ -481,230 +481,230 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49.12</v>
+        <v>47.54</v>
       </c>
       <c r="E3" t="n">
-        <v>25.788</v>
+        <v>26.436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49.12</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>84.02</v>
+        <v>52.36</v>
       </c>
       <c r="E4" t="n">
-        <v>23.428</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>58.2</v>
       </c>
       <c r="D5" t="n">
-        <v>57.56</v>
+        <v>107.16</v>
       </c>
       <c r="E5" t="n">
-        <v>27.404</v>
+        <v>22.104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>52.36</v>
       </c>
       <c r="D6" t="n">
-        <v>66.2</v>
+        <v>127.38</v>
       </c>
       <c r="E6" t="n">
-        <v>26.58</v>
+        <v>23.032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84.02</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>149.66</v>
+        <v>62.74</v>
       </c>
       <c r="E7" t="n">
-        <v>20.464</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>47.36</v>
+        <v>80.7</v>
       </c>
       <c r="E8" t="n">
-        <v>26.464</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>66.2</v>
+        <v>107.16</v>
       </c>
       <c r="D9" t="n">
-        <v>140.32</v>
+        <v>173.46</v>
       </c>
       <c r="E9" t="n">
-        <v>24.248</v>
+        <v>18.564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>173.46</v>
       </c>
       <c r="D10" t="n">
-        <v>62.54</v>
+        <v>229.98</v>
       </c>
       <c r="E10" t="n">
-        <v>26.436</v>
+        <v>16.012</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>140.32</v>
+        <v>47.54</v>
       </c>
       <c r="D11" t="n">
-        <v>185.8</v>
+        <v>110.44</v>
       </c>
       <c r="E11" t="n">
-        <v>20.84</v>
+        <v>22.276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57.56</v>
+        <v>62.74</v>
       </c>
       <c r="D12" t="n">
-        <v>95.84</v>
+        <v>124.3</v>
       </c>
       <c r="E12" t="n">
-        <v>24.716</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>95.84</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>143.34</v>
+        <v>74.12</v>
       </c>
       <c r="E13" t="n">
-        <v>22.076</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>58.2</v>
+        <v>124.3</v>
       </c>
       <c r="D14" t="n">
-        <v>106.2</v>
+        <v>166.9</v>
       </c>
       <c r="E14" t="n">
-        <v>21.22</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="15">
@@ -713,55 +713,55 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>47.36</v>
+        <v>74.12</v>
       </c>
       <c r="D15" t="n">
-        <v>107.26</v>
+        <v>133.8</v>
       </c>
       <c r="E15" t="n">
-        <v>23.104</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62.54</v>
+        <v>80.7</v>
       </c>
       <c r="D16" t="n">
-        <v>108.56</v>
+        <v>129.44</v>
       </c>
       <c r="E16" t="n">
-        <v>22.964</v>
+        <v>22.356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>106.2</v>
+        <v>127.38</v>
       </c>
       <c r="D17" t="n">
-        <v>168.34</v>
+        <v>170.98</v>
       </c>
       <c r="E17" t="n">
-        <v>18.096</v>
+        <v>20.312</v>
       </c>
     </row>
     <row r="18">
@@ -770,302 +770,302 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>108.56</v>
+        <v>170.98</v>
       </c>
       <c r="D18" t="n">
-        <v>168.56</v>
+        <v>225.76</v>
       </c>
       <c r="E18" t="n">
-        <v>20.084</v>
+        <v>16.464</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>149.66</v>
+        <v>110.44</v>
       </c>
       <c r="D19" t="n">
-        <v>192.88</v>
+        <v>168.32</v>
       </c>
       <c r="E19" t="n">
-        <v>17.272</v>
+        <v>19.588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>168.34</v>
+        <v>225.76</v>
       </c>
       <c r="D20" t="n">
-        <v>229.9</v>
+        <v>281.24</v>
       </c>
       <c r="E20" t="n">
-        <v>13.56</v>
+        <v>13.056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>107.26</v>
+        <v>229.98</v>
       </c>
       <c r="D21" t="n">
-        <v>162.04</v>
+        <v>275.08</v>
       </c>
       <c r="E21" t="n">
-        <v>19.256</v>
+        <v>13.132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>192.88</v>
+        <v>168.32</v>
       </c>
       <c r="D22" t="n">
-        <v>241.84</v>
+        <v>225.42</v>
       </c>
       <c r="E22" t="n">
-        <v>13.996</v>
+        <v>15.508</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>241.84</v>
+        <v>281.24</v>
       </c>
       <c r="D23" t="n">
-        <v>311.34</v>
+        <v>335.74</v>
       </c>
       <c r="E23" t="n">
-        <v>11.136</v>
+        <v>10.696</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>143.34</v>
+        <v>275.08</v>
       </c>
       <c r="D24" t="n">
-        <v>198.54</v>
+        <v>339.84</v>
       </c>
       <c r="E24" t="n">
-        <v>18.176</v>
+        <v>10.756</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>168.56</v>
+        <v>129.44</v>
       </c>
       <c r="D25" t="n">
-        <v>222.86</v>
+        <v>180.36</v>
       </c>
       <c r="E25" t="n">
-        <v>17.764</v>
+        <v>18.884</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>222.86</v>
+        <v>180.36</v>
       </c>
       <c r="D26" t="n">
-        <v>289.86</v>
+        <v>222.52</v>
       </c>
       <c r="E26" t="n">
-        <v>14.684</v>
+        <v>16.288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>229.9</v>
+        <v>166.9</v>
       </c>
       <c r="D27" t="n">
-        <v>294.48</v>
+        <v>221.9</v>
       </c>
       <c r="E27" t="n">
-        <v>9.712</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>185.8</v>
+        <v>133.8</v>
       </c>
       <c r="D28" t="n">
-        <v>250.3</v>
+        <v>192.74</v>
       </c>
       <c r="E28" t="n">
-        <v>17.48</v>
+        <v>19.156</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>250.3</v>
+        <v>192.74</v>
       </c>
       <c r="D29" t="n">
-        <v>310.36</v>
+        <v>232.14</v>
       </c>
       <c r="E29" t="n">
-        <v>15.104</v>
+        <v>16.836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>294.48</v>
+        <v>335.74</v>
       </c>
       <c r="D30" t="n">
-        <v>340.1</v>
+        <v>375.74</v>
       </c>
       <c r="E30" t="n">
-        <v>6.28</v>
+        <v>7.336</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>310.36</v>
+        <v>225.42</v>
       </c>
       <c r="D31" t="n">
-        <v>369.1</v>
+        <v>276.96</v>
       </c>
       <c r="E31" t="n">
-        <v>12.32</v>
+        <v>12.484</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>311.34</v>
+        <v>232.14</v>
       </c>
       <c r="D32" t="n">
-        <v>367.86</v>
+        <v>312.04</v>
       </c>
       <c r="E32" t="n">
-        <v>8.584</v>
+        <v>13.416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>162.04</v>
+        <v>222.52</v>
       </c>
       <c r="D33" t="n">
-        <v>225.68</v>
+        <v>296.94</v>
       </c>
       <c r="E33" t="n">
-        <v>15.512</v>
+        <v>13.456</v>
       </c>
     </row>
     <row r="34">
@@ -1074,131 +1074,131 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>369.1</v>
+        <v>221.9</v>
       </c>
       <c r="D34" t="n">
-        <v>405.14</v>
+        <v>297.54</v>
       </c>
       <c r="E34" t="n">
-        <v>9.356</v>
+        <v>13.376</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>198.54</v>
+        <v>375.74</v>
       </c>
       <c r="D35" t="n">
-        <v>269.88</v>
+        <v>434.96</v>
       </c>
       <c r="E35" t="n">
-        <v>15.152</v>
+        <v>5.004</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>340.1</v>
+        <v>276.96</v>
       </c>
       <c r="D36" t="n">
-        <v>386.9</v>
+        <v>358.22</v>
       </c>
       <c r="E36" t="n">
-        <v>2.74</v>
+        <v>9.468</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>405.14</v>
+        <v>312.04</v>
       </c>
       <c r="D37" t="n">
-        <v>451.5</v>
+        <v>379.96</v>
       </c>
       <c r="E37" t="n">
-        <v>6.34</v>
+        <v>10.224</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>289.86</v>
+        <v>358.22</v>
       </c>
       <c r="D38" t="n">
-        <v>347.06</v>
+        <v>435.22</v>
       </c>
       <c r="E38" t="n">
-        <v>10.604</v>
+        <v>6.388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>269.88</v>
+        <v>339.84</v>
       </c>
       <c r="D39" t="n">
-        <v>338.38</v>
+        <v>398.54</v>
       </c>
       <c r="E39" t="n">
-        <v>12.432</v>
+        <v>8.476000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>338.38</v>
+        <v>297.54</v>
       </c>
       <c r="D40" t="n">
-        <v>398.1</v>
+        <v>338.58</v>
       </c>
       <c r="E40" t="n">
-        <v>9.6</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>225.68</v>
+        <v>379.96</v>
       </c>
       <c r="D41" t="n">
-        <v>264.78</v>
+        <v>434.66</v>
       </c>
       <c r="E41" t="n">
-        <v>13.232</v>
+        <v>7.364</v>
       </c>
     </row>
   </sheetData>
